--- a/Statistical analyses/Tukey posthoc/AP/Vmax, timePoint.xlsx
+++ b/Statistical analyses/Tukey posthoc/AP/Vmax, timePoint.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">group1 group2 meandiff p-adj lower upper reject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 3 0.5953 0.0667 -0.0285 1.2192 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 5 0.0288 0.9 -0.5951 0.6526 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 6 -0.254 0.6835 -0.8778 0.3699 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 5 -0.5666 0.0879 -1.1904 0.0573 False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 6 -0.8493 0.0036 -1.4731 -0.2254 True </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 6 -0.2827 0.616 -0.9066 0.3411 False </t>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>meandiff</t>
+  </si>
+  <si>
+    <t>p-adj</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -392,45 +392,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.0667</v>
+      </c>
+      <c r="E2">
+        <v>-0.0285</v>
+      </c>
+      <c r="F2">
+        <v>1.2192</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.0288</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>-0.5951</v>
+      </c>
+      <c r="F3">
+        <v>0.6526</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>-0.254</v>
+      </c>
+      <c r="D4">
+        <v>0.6835</v>
+      </c>
+      <c r="E4">
+        <v>-0.8778</v>
+      </c>
+      <c r="F4">
+        <v>0.3699</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-0.5666</v>
+      </c>
+      <c r="D5">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="E5">
+        <v>-1.1904</v>
+      </c>
+      <c r="F5">
+        <v>0.0573</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-0.8493000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.0036</v>
+      </c>
+      <c r="E6">
+        <v>-1.4731</v>
+      </c>
+      <c r="F6">
+        <v>-0.2254</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-0.2827</v>
+      </c>
+      <c r="D7">
+        <v>0.616</v>
+      </c>
+      <c r="E7">
+        <v>-0.9066</v>
+      </c>
+      <c r="F7">
+        <v>0.3411</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Statistical analyses/Tukey posthoc/AP/Vmax, timePoint.xlsx
+++ b/Statistical analyses/Tukey posthoc/AP/Vmax, timePoint.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\AP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C8FCB-6DED-45E0-A604-F3FE5D96446D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,17 +105,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -429,22 +488,22 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.5953000000000001</v>
+        <v>0.59530000000000005</v>
       </c>
       <c r="D2">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>-0.0285</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>1.2192</v>
+        <v>1.2192000000000001</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -452,22 +511,22 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.0288</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="D3">
         <v>0.9</v>
       </c>
       <c r="E3">
-        <v>-0.5951</v>
+        <v>-0.59509999999999996</v>
       </c>
       <c r="F3">
-        <v>0.6526</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -481,16 +540,16 @@
         <v>0.6835</v>
       </c>
       <c r="E4">
-        <v>-0.8778</v>
+        <v>-0.87780000000000002</v>
       </c>
       <c r="F4">
-        <v>0.3699</v>
+        <v>0.36990000000000001</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -498,45 +557,45 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.5666</v>
+        <v>-0.56659999999999999</v>
       </c>
       <c r="D5">
-        <v>0.08790000000000001</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="E5">
-        <v>-1.1904</v>
+        <v>-1.1903999999999999</v>
       </c>
       <c r="F5">
-        <v>0.0573</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>-0.8493000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.0036</v>
-      </c>
-      <c r="E6">
-        <v>-1.4731</v>
-      </c>
-      <c r="F6">
-        <v>-0.2254</v>
-      </c>
-      <c r="G6" t="b">
+      <c r="C6" s="2">
+        <v>-0.84930000000000005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1.4731000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.22539999999999999</v>
+      </c>
+      <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -544,16 +603,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.2827</v>
+        <v>-0.28270000000000001</v>
       </c>
       <c r="D7">
-        <v>0.616</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E7">
-        <v>-0.9066</v>
+        <v>-0.90659999999999996</v>
       </c>
       <c r="F7">
-        <v>0.3411</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
